--- a/mf-intelligence/data/separated_files/sbi/SBI Energy Opportunities Fund/SBI Energy Opportunities Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Energy Opportunities Fund/SBI Energy Opportunities Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1151 +436,893 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>100169</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Indian Oil Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INE242A01010</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Indian Oil Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE242A01010</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>47774163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>77986.53999999999</v>
+      </c>
       <c r="F2" t="n">
-        <v>47774163</v>
-      </c>
-      <c r="G2" t="n">
-        <v>77986.53999999999</v>
-      </c>
-      <c r="H2" t="n">
         <v>9.06</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>100002</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INE002A01018</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>5295000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>73886.42999999999</v>
+      </c>
       <c r="F3" t="n">
-        <v>5295000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>73886.42999999999</v>
-      </c>
-      <c r="H3" t="n">
         <v>8.58</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>100094</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bharat Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INE029A01011</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE029A01011</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>17098067</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62322.45</v>
+      </c>
       <c r="F4" t="n">
-        <v>17098067</v>
-      </c>
-      <c r="G4" t="n">
-        <v>62322.45</v>
-      </c>
-      <c r="H4" t="n">
         <v>7.24</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>100176</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GAIL (India) Ltd.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INE129A01019</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GAIL (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE129A01019</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>35634819</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59613.49</v>
+      </c>
       <c r="F5" t="n">
-        <v>35634819</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59613.49</v>
-      </c>
-      <c r="H5" t="n">
         <v>6.92</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>100266</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gujarat State Petronet Ltd.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INE246F01010</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gujarat State Petronet Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE246F01010</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>17297194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52687.25</v>
+      </c>
       <c r="F6" t="n">
-        <v>17297194</v>
-      </c>
-      <c r="G6" t="n">
-        <v>52687.25</v>
-      </c>
-      <c r="H6" t="n">
         <v>6.12</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>100259</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kalpataru Projects International Ltd.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INE220B01022</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kalpataru Projects International Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE220B01022</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>4005515</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45823.09</v>
+      </c>
       <c r="F7" t="n">
-        <v>4005515</v>
-      </c>
-      <c r="G7" t="n">
-        <v>45823.09</v>
-      </c>
-      <c r="H7" t="n">
         <v>5.32</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>100181</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NTPC Ltd.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INE733E01010</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NTPC Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE733E01010</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>11245170</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40032.81</v>
+      </c>
       <c r="F8" t="n">
-        <v>11245170</v>
-      </c>
-      <c r="G8" t="n">
-        <v>40032.81</v>
-      </c>
-      <c r="H8" t="n">
         <v>4.65</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>100164</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Petronet LNG Ltd.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INE347G01014</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Petronet LNG Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE347G01014</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>13219320</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38302.98</v>
+      </c>
       <c r="F9" t="n">
-        <v>13219320</v>
-      </c>
-      <c r="G9" t="n">
-        <v>38302.98</v>
-      </c>
-      <c r="H9" t="n">
         <v>4.45</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>100671</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HEG Ltd.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INE545A01024</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HEG Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE545A01024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>6719943</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36422.09</v>
+      </c>
       <c r="F10" t="n">
-        <v>6719943</v>
-      </c>
-      <c r="G10" t="n">
-        <v>36422.09</v>
-      </c>
-      <c r="H10" t="n">
         <v>4.23</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>100217</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Torrent Power Ltd.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INE813H01021</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Torrent Power Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE813H01021</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>2435360</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33793.06</v>
+      </c>
       <c r="F11" t="n">
-        <v>2435360</v>
-      </c>
-      <c r="G11" t="n">
-        <v>33793.06</v>
-      </c>
-      <c r="H11" t="n">
         <v>3.92</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>100111</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INE213A01029</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE213A01029</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>12316276</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33125.86</v>
+      </c>
       <c r="F12" t="n">
-        <v>12316276</v>
-      </c>
-      <c r="G12" t="n">
-        <v>33125.86</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.85</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>100143</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thermax Ltd.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INE152A01029</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thermax Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE152A01029</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1133474</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32621.38</v>
+      </c>
       <c r="F13" t="n">
-        <v>1133474</v>
-      </c>
-      <c r="G13" t="n">
-        <v>32621.38</v>
-      </c>
-      <c r="H13" t="n">
         <v>3.79</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>100283</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honeywell Automation India Ltd.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INE671A01010</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Honeywell Automation India Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE671A01010</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>76240</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25445.1</v>
+      </c>
       <c r="F14" t="n">
-        <v>76240</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25445.1</v>
-      </c>
-      <c r="H14" t="n">
         <v>2.96</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>100362</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JSW Energy Ltd.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INE121E01018</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JSW Energy Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE121E01018</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>4650124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21381.27</v>
+      </c>
       <c r="F15" t="n">
-        <v>4650124</v>
-      </c>
-      <c r="G15" t="n">
-        <v>21381.27</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.48</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>100219</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Indraprastha Gas Ltd.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INE203G01027</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indraprastha Gas Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE203G01027</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>11183665</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19894.62</v>
+      </c>
       <c r="F16" t="n">
-        <v>11183665</v>
-      </c>
-      <c r="G16" t="n">
-        <v>19894.62</v>
-      </c>
-      <c r="H16" t="n">
         <v>2.31</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>100374</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CESC Ltd.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INE486A01021</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CESC Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE486A01021</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>12114574</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18191.24</v>
+      </c>
       <c r="F17" t="n">
-        <v>12114574</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18191.24</v>
-      </c>
-      <c r="H17" t="n">
         <v>2.11</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>100528</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Graphite India Ltd.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INE371A01025</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Graphite India Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE371A01025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>2796573</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17263.25</v>
+      </c>
       <c r="F18" t="n">
-        <v>2796573</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17263.25</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.01</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>100194</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Power Finance Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INE134E01011</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE134E01011</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>4257426</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16150.55</v>
+      </c>
       <c r="F19" t="n">
-        <v>4257426</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16150.55</v>
-      </c>
-      <c r="H19" t="n">
         <v>1.88</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>101625</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Savita Oil Technologies Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INE035D01020</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Savita Oil Technologies Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE035D01020</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>4547684</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15864.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4547684</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15864.6</v>
-      </c>
-      <c r="H20" t="n">
         <v>1.84</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>100195</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>REC Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INE020B01018</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>REC Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE020B01018</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>4325000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15747.33</v>
+      </c>
       <c r="F21" t="n">
-        <v>4325000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15747.33</v>
-      </c>
-      <c r="H21" t="n">
         <v>1.83</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>100130</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gujarat Gas Ltd.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INE844O01030</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gujarat Gas Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE844O01030</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>3693637</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15710.88</v>
+      </c>
       <c r="F22" t="n">
-        <v>3693637</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15710.88</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.82</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>101121</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Adani Energy Solutions Ltd.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INE931S01010</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE931S01010</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11185</v>
+      </c>
       <c r="F23" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11185</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.3</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>100182</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Power Grid Corporation of India Ltd.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INE752E01010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE752E01010</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>4310964</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11057.62</v>
+      </c>
       <c r="F24" t="n">
-        <v>4310964</v>
-      </c>
-      <c r="G24" t="n">
-        <v>11057.62</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.28</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>100267</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Oil India Ltd.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INE274J01014</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oil India Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE274J01014</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10711.05</v>
+      </c>
       <c r="F25" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>10711.05</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.24</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>101746</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shivalik Bimetal Controls Ltd.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INE386D01027</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Shivalik Bimetal Controls Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE386D01027</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>2352146</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9997.799999999999</v>
+      </c>
       <c r="F26" t="n">
-        <v>2352146</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9997.799999999999</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.16</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>100670</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Tube Investments of India Ltd.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INE974X01010</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tube Investments of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE974X01010</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Auto Components</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9924.18</v>
+      </c>
       <c r="F27" t="n">
-        <v>425000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9924.18</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.15</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>100286</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NHPC Ltd.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INE848E01016</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NHPC Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE848E01016</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>10964983</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8574.620000000001</v>
+      </c>
       <c r="F28" t="n">
-        <v>10964983</v>
-      </c>
-      <c r="G28" t="n">
-        <v>8574.620000000001</v>
-      </c>
-      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>100694</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Indian Energy Exchange Ltd.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INE022Q01020</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indian Energy Exchange Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE022Q01020</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>5704650</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7232.93</v>
+      </c>
       <c r="F29" t="n">
-        <v>5704650</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7232.93</v>
-      </c>
-      <c r="H29" t="n">
         <v>0.84</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="n">
-        <v>100061</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KEC International Ltd.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INE389H01022</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KEC International Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE389H01022</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6004.35</v>
+      </c>
       <c r="F30" t="n">
-        <v>900000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6004.35</v>
-      </c>
-      <c r="H30" t="n">
         <v>0.7</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="n">
-        <v>100379</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Adani Power Ltd.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INE814H01029</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Adani Power Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE814H01029</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>2224865</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3012.02</v>
+      </c>
       <c r="F31" t="n">
-        <v>2224865</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3012.02</v>
-      </c>
-      <c r="H31" t="n">
         <v>0.35</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="n">
-        <v>102039</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Inox India Ltd.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INE616N01034</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Inox India Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE616N01034</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2231.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2231.6</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.26</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="n">
-        <v>101346</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chemplast Sanmar Ltd.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INE488A01050</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chemplast Sanmar Ltd.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>INE488A01050</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>664422</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1729.16</v>
+      </c>
       <c r="F33" t="n">
-        <v>664422</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1729.16</v>
-      </c>
-      <c r="H33" t="n">
         <v>0.2</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="n">
-        <v>1801406</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>364 DAY T-BILL 19.11.26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IN002025Z344</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>364 DAY T-BILL 19.11.26</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>IN002025Z344</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
           <t>Sovereign</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>478.34</v>
+      </c>
       <c r="F34" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>478.34</v>
-      </c>
-      <c r="H34" t="n">
         <v>0.06</v>
       </c>
-      <c r="I34" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
